--- a/tracciati_ICAR_import_2.0_mappingTabelleSIA/tracciati_ICAR_import_2.0_mappingTabelleSIA/Tracciati_mappaturaEAC-CPF2.0/mapping_Tracciati_AGENTI.xlsx
+++ b/tracciati_ICAR_import_2.0_mappingTabelleSIA/tracciati_ICAR_import_2.0_mappingTabelleSIA/Tracciati_mappaturaEAC-CPF2.0/mapping_Tracciati_AGENTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stella.difazio\Downloads\tracciatiCompletatiRivisti\EAC-CPF2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TirocinioBUP\Arco4Archives\tracciati_ICAR_import_2.0_mappingTabelleSIA\tracciati_ICAR_import_2.0_mappingTabelleSIA\Tracciati_mappaturaEAC-CPF2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288DC3AF-4192-45F4-93A0-52D7E206639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC1A1C-1757-4014-A47E-A09AE4265226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{B6CB1870-1016-4B4D-A9DB-02FBD574F8D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{B6CB1870-1016-4B4D-A9DB-02FBD574F8D0}"/>
   </bookViews>
   <sheets>
     <sheet name="identificazione" sheetId="5" r:id="rId1"/>
@@ -3114,7 +3114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3220,6 +3220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3670,13 +3676,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3695,9 +3703,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3735,7 +3743,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3841,7 +3849,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3983,7 +3991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3997,15 +4005,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" customWidth="1"/>
+    <col min="2" max="2" width="94.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="117" t="s">
         <v>265</v>
       </c>
@@ -4016,13 +4024,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4039,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -4042,7 +4050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -4053,13 +4061,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="32"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -4067,7 +4075,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -4075,13 +4083,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="32"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -4092,7 +4100,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -4103,13 +4111,13 @@
         <v>740</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="32"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -4117,13 +4125,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -4137,13 +4145,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -4163,18 +4171,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9B47B8-EA7B-460F-89CF-BA0E85E33904}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="84.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="117" t="s">
         <v>265</v>
       </c>
@@ -4185,24 +4193,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3" s="128" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="126" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>205</v>
       </c>
@@ -4210,18 +4218,18 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="126" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>207</v>
       </c>
@@ -4229,7 +4237,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -4237,17 +4245,17 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="55"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>209</v>
       </c>
@@ -4255,13 +4263,13 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>211</v>
       </c>
@@ -4269,20 +4277,20 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="126" t="s">
         <v>735</v>
       </c>
     </row>
@@ -4295,18 +4303,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD92B24-61AC-48BC-9312-FAEEC7493105}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="99.140625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="99.109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="50.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="50.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="117" t="s">
         <v>265</v>
       </c>
@@ -4318,7 +4326,7 @@
       </c>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -4326,7 +4334,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -4337,14 +4345,14 @@
         <v>736</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="18"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -4353,7 +4361,7 @@
       </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -4361,7 +4369,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -4372,13 +4380,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
@@ -4394,7 +4402,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>32</v>
       </c>
@@ -4405,7 +4413,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -4414,7 +4422,7 @@
       </c>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
@@ -4422,14 +4430,14 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>30</v>
       </c>
@@ -4438,7 +4446,7 @@
       </c>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
@@ -4447,7 +4455,7 @@
       </c>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
@@ -4458,7 +4466,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -4467,7 +4475,7 @@
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
@@ -4478,7 +4486,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>36</v>
       </c>
@@ -4487,7 +4495,7 @@
       </c>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -4495,14 +4503,14 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
@@ -4513,14 +4521,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
@@ -4529,7 +4537,7 @@
       </c>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
@@ -4538,7 +4546,7 @@
       </c>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
@@ -4549,14 +4557,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -4565,7 +4573,7 @@
       </c>
       <c r="C29" s="21"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>31</v>
       </c>
@@ -4574,7 +4582,7 @@
       </c>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>32</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
@@ -4594,7 +4602,7 @@
       </c>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
@@ -4603,14 +4611,14 @@
       </c>
       <c r="C33" s="19"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>30</v>
       </c>
@@ -4619,7 +4627,7 @@
       </c>
       <c r="C35" s="19"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>31</v>
       </c>
@@ -4627,7 +4635,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>32</v>
       </c>
@@ -4638,7 +4646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>33</v>
       </c>
@@ -4646,7 +4654,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>34</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>36</v>
       </c>
@@ -4662,7 +4670,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>37</v>
       </c>
@@ -4670,17 +4678,17 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="16"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
     </row>
-    <row r="44" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
@@ -4688,7 +4696,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>22</v>
       </c>
@@ -4696,7 +4704,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>23</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>24</v>
       </c>
@@ -4712,14 +4720,14 @@
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="93"/>
       <c r="C48" s="32"/>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>26</v>
       </c>
@@ -4727,7 +4735,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>27</v>
       </c>
@@ -4735,7 +4743,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>28</v>
       </c>
@@ -4746,14 +4754,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="93"/>
       <c r="C52" s="32"/>
     </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>30</v>
       </c>
@@ -4761,7 +4769,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>31</v>
       </c>
@@ -4769,7 +4777,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>32</v>
       </c>
@@ -4780,7 +4788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
@@ -4789,7 +4797,7 @@
       </c>
       <c r="C56" s="23"/>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>34</v>
       </c>
@@ -4797,14 +4805,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="93"/>
       <c r="C58" s="32"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>30</v>
       </c>
@@ -4812,7 +4820,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>31</v>
       </c>
@@ -4820,7 +4828,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>32</v>
       </c>
@@ -4831,7 +4839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>33</v>
       </c>
@@ -4839,7 +4847,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>34</v>
       </c>
@@ -4847,7 +4855,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
         <v>36</v>
       </c>
@@ -4858,7 +4866,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>37</v>
       </c>
@@ -4866,14 +4874,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
     </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>39</v>
       </c>
@@ -4881,7 +4889,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>40</v>
       </c>
@@ -4889,7 +4897,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>23</v>
       </c>
@@ -4897,7 +4905,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>24</v>
       </c>
@@ -4905,7 +4913,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>41</v>
       </c>
@@ -4916,14 +4924,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>26</v>
       </c>
@@ -4931,7 +4939,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -4939,7 +4947,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>28</v>
       </c>
@@ -4950,14 +4958,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="32"/>
     </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>30</v>
       </c>
@@ -4965,7 +4973,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>31</v>
       </c>
@@ -4973,7 +4981,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>32</v>
       </c>
@@ -4984,7 +4992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>33</v>
       </c>
@@ -4992,7 +5000,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>34</v>
       </c>
@@ -5000,14 +5008,14 @@
         <v>370</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B82" s="93"/>
       <c r="C82" s="32"/>
     </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>30</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>31</v>
       </c>
@@ -5023,7 +5031,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>32</v>
       </c>
@@ -5034,7 +5042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>33</v>
       </c>
@@ -5042,7 +5050,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>34</v>
       </c>
@@ -5050,7 +5058,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="27" t="s">
         <v>36</v>
       </c>
@@ -5058,7 +5066,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>37</v>
       </c>
@@ -5066,14 +5074,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
     </row>
-    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>26</v>
       </c>
@@ -5081,7 +5089,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>27</v>
       </c>
@@ -5089,7 +5097,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -5100,14 +5108,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B94" s="93"/>
       <c r="C94" s="32"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>30</v>
       </c>
@@ -5115,7 +5123,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>31</v>
       </c>
@@ -5123,7 +5131,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>32</v>
       </c>
@@ -5134,7 +5142,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>33</v>
       </c>
@@ -5142,7 +5150,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>34</v>
       </c>
@@ -5150,14 +5158,14 @@
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B100" s="93"/>
       <c r="C100" s="32"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>30</v>
       </c>
@@ -5165,7 +5173,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>31</v>
       </c>
@@ -5173,7 +5181,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>32</v>
       </c>
@@ -5184,7 +5192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>33</v>
       </c>
@@ -5192,7 +5200,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
         <v>34</v>
       </c>
@@ -5200,18 +5208,18 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="123" t="s">
         <v>36</v>
       </c>
       <c r="B106" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="127" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>37</v>
       </c>
@@ -5219,14 +5227,14 @@
         <v>386</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
     </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>45</v>
       </c>
@@ -5237,7 +5245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>46</v>
       </c>
@@ -5248,14 +5256,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B111" s="32"/>
       <c r="C111" s="32"/>
     </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>26</v>
       </c>
@@ -5263,7 +5271,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>27</v>
       </c>
@@ -5272,25 +5280,25 @@
       </c>
       <c r="C113" s="24"/>
     </row>
-    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="128" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B115" s="32"/>
       <c r="C115" s="32"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>30</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>31</v>
       </c>
@@ -5306,18 +5314,18 @@
         <v>389</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B118" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="127" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>33</v>
       </c>
@@ -5325,7 +5333,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>34</v>
       </c>
@@ -5333,14 +5341,14 @@
         <v>392</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B121" s="32"/>
       <c r="C121" s="32"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>30</v>
       </c>
@@ -5348,7 +5356,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>31</v>
       </c>
@@ -5356,18 +5364,18 @@
         <v>394</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B124" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="127" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>33</v>
       </c>
@@ -5375,7 +5383,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>34</v>
       </c>
@@ -5383,7 +5391,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="111" t="s">
         <v>36</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>37</v>
       </c>
@@ -5399,18 +5407,18 @@
         <v>397</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="15"/>
       <c r="B129" s="16"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>49</v>
       </c>
@@ -5418,7 +5426,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>50</v>
       </c>
@@ -5436,18 +5444,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6244E775-2398-449C-A67A-FFE62BF8ACC5}">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView topLeftCell="A79" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="84.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="117" t="s">
         <v>265</v>
       </c>
@@ -5458,7 +5466,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>59</v>
       </c>
@@ -5466,13 +5474,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="93"/>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>51</v>
       </c>
@@ -5480,7 +5488,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -5488,7 +5496,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -5496,13 +5504,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="93"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -5510,7 +5518,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -5518,7 +5526,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
@@ -5529,13 +5537,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="93"/>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -5543,7 +5551,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>31</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
@@ -5562,7 +5570,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -5570,7 +5578,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
@@ -5578,13 +5586,13 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="93"/>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>30</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>31</v>
       </c>
@@ -5600,7 +5608,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>32</v>
       </c>
@@ -5611,7 +5619,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
@@ -5619,7 +5627,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -5627,7 +5635,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>36</v>
       </c>
@@ -5635,7 +5643,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -5643,13 +5651,13 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="93"/>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
@@ -5657,7 +5665,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>40</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
@@ -5673,7 +5681,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -5681,7 +5689,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>41</v>
       </c>
@@ -5692,13 +5700,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="93"/>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
@@ -5706,7 +5714,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>27</v>
       </c>
@@ -5714,7 +5722,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
@@ -5725,13 +5733,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="93"/>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>30</v>
       </c>
@@ -5739,7 +5747,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>31</v>
       </c>
@@ -5747,7 +5755,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>32</v>
       </c>
@@ -5758,7 +5766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>33</v>
       </c>
@@ -5766,7 +5774,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
@@ -5774,13 +5782,13 @@
         <v>425</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="93"/>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>30</v>
       </c>
@@ -5788,7 +5796,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>31</v>
       </c>
@@ -5796,7 +5804,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>32</v>
       </c>
@@ -5807,7 +5815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>33</v>
       </c>
@@ -5815,7 +5823,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>34</v>
       </c>
@@ -5823,7 +5831,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="110" t="s">
         <v>36</v>
       </c>
@@ -5831,7 +5839,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="90" t="s">
         <v>37</v>
       </c>
@@ -5839,13 +5847,13 @@
         <v>432</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="93"/>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -5853,7 +5861,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>27</v>
       </c>
@@ -5861,7 +5869,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>28</v>
       </c>
@@ -5872,13 +5880,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="93"/>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>30</v>
       </c>
@@ -5886,7 +5894,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>31</v>
       </c>
@@ -5894,7 +5902,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>32</v>
       </c>
@@ -5905,7 +5913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>33</v>
       </c>
@@ -5913,7 +5921,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>34</v>
       </c>
@@ -5921,13 +5929,13 @@
         <v>437</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="93"/>
     </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>30</v>
       </c>
@@ -5935,7 +5943,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>31</v>
       </c>
@@ -5943,7 +5951,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>32</v>
       </c>
@@ -5954,7 +5962,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>33</v>
       </c>
@@ -5962,7 +5970,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>34</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="110" t="s">
         <v>36</v>
       </c>
@@ -5981,7 +5989,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="90" t="s">
         <v>37</v>
       </c>
@@ -5989,13 +5997,13 @@
         <v>442</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B67" s="93"/>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>45</v>
       </c>
@@ -6006,7 +6014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>98</v>
       </c>
@@ -6017,19 +6025,19 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B70" s="73"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>224</v>
       </c>
       <c r="B71" s="32"/>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>26</v>
       </c>
@@ -6037,7 +6045,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>27</v>
       </c>
@@ -6046,7 +6054,7 @@
       </c>
       <c r="C73" s="24"/>
     </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>28</v>
       </c>
@@ -6057,13 +6065,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="32"/>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>30</v>
       </c>
@@ -6071,7 +6079,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>31</v>
       </c>
@@ -6079,7 +6087,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>32</v>
       </c>
@@ -6090,7 +6098,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>33</v>
       </c>
@@ -6098,7 +6106,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>34</v>
       </c>
@@ -6106,13 +6114,13 @@
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B81" s="32"/>
     </row>
-    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>30</v>
       </c>
@@ -6120,7 +6128,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>31</v>
       </c>
@@ -6128,7 +6136,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>32</v>
       </c>
@@ -6139,7 +6147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>33</v>
       </c>
@@ -6147,7 +6155,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>34</v>
       </c>
@@ -6155,7 +6163,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="112" t="s">
         <v>36</v>
       </c>
@@ -6163,7 +6171,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>37</v>
       </c>
@@ -6171,13 +6179,13 @@
         <v>454</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B89" s="93"/>
     </row>
-    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>55</v>
       </c>
@@ -6188,13 +6196,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B91" s="93"/>
     </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>26</v>
       </c>
@@ -6202,7 +6210,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>27</v>
       </c>
@@ -6210,7 +6218,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -6221,13 +6229,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B95" s="93"/>
     </row>
-    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>30</v>
       </c>
@@ -6235,7 +6243,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>31</v>
       </c>
@@ -6243,7 +6251,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>32</v>
       </c>
@@ -6254,7 +6262,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>33</v>
       </c>
@@ -6262,7 +6270,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>34</v>
       </c>
@@ -6270,13 +6278,13 @@
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B101" s="93"/>
     </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>30</v>
       </c>
@@ -6284,7 +6292,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>31</v>
       </c>
@@ -6292,7 +6300,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>32</v>
       </c>
@@ -6303,7 +6311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>33</v>
       </c>
@@ -6311,7 +6319,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>34</v>
       </c>
@@ -6319,7 +6327,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="49" t="s">
         <v>36</v>
       </c>
@@ -6327,7 +6335,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>37</v>
       </c>
@@ -6335,13 +6343,13 @@
         <v>464</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B109" s="93"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>58</v>
       </c>
@@ -6363,14 +6371,14 @@
       <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="117" t="s">
         <v>265</v>
       </c>
@@ -6381,7 +6389,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>64</v>
       </c>
@@ -6389,7 +6397,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -6400,13 +6408,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
@@ -6417,7 +6425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>66</v>
       </c>
@@ -6425,7 +6433,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
@@ -6436,7 +6444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -6444,13 +6452,13 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -6458,7 +6466,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -6466,7 +6474,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
@@ -6477,13 +6485,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -6491,7 +6499,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -6499,7 +6507,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -6510,7 +6518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -6518,7 +6526,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
@@ -6526,13 +6534,13 @@
         <v>477</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
@@ -6540,7 +6548,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>31</v>
       </c>
@@ -6548,7 +6556,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>32</v>
       </c>
@@ -6559,7 +6567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
@@ -6567,7 +6575,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>34</v>
       </c>
@@ -6575,7 +6583,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>36</v>
       </c>
@@ -6583,7 +6591,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -6591,13 +6599,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
@@ -6605,7 +6613,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
@@ -6613,7 +6621,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>67</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -6629,7 +6637,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
@@ -6640,13 +6648,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>26</v>
       </c>
@@ -6654,7 +6662,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>27</v>
       </c>
@@ -6662,7 +6670,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>28</v>
       </c>
@@ -6673,13 +6681,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="93"/>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>30</v>
       </c>
@@ -6687,7 +6695,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>31</v>
       </c>
@@ -6695,7 +6703,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>32</v>
       </c>
@@ -6706,7 +6714,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>33</v>
       </c>
@@ -6714,7 +6722,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
@@ -6722,13 +6730,13 @@
         <v>496</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="93"/>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>30</v>
       </c>
@@ -6736,7 +6744,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>31</v>
       </c>
@@ -6744,7 +6752,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>32</v>
       </c>
@@ -6755,7 +6763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>33</v>
       </c>
@@ -6763,7 +6771,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>34</v>
       </c>
@@ -6771,7 +6779,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
         <v>36</v>
       </c>
@@ -6779,7 +6787,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>37</v>
       </c>
@@ -6787,13 +6795,13 @@
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="9"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>69</v>
       </c>
@@ -6801,13 +6809,13 @@
         <v>502</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -6818,13 +6826,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>74</v>
       </c>
@@ -6832,13 +6840,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>76</v>
       </c>
@@ -6846,13 +6854,13 @@
         <v>504</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -6860,7 +6868,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
@@ -6868,7 +6876,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
@@ -6879,13 +6887,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="106" t="s">
         <v>30</v>
       </c>
@@ -6893,7 +6901,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="106" t="s">
         <v>31</v>
       </c>
@@ -6901,7 +6909,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>32</v>
       </c>
@@ -6912,7 +6920,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -6920,7 +6928,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>34</v>
       </c>
@@ -6928,13 +6936,13 @@
         <v>508</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="106" t="s">
         <v>30</v>
       </c>
@@ -6942,7 +6950,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="106" t="s">
         <v>31</v>
       </c>
@@ -6950,7 +6958,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>32</v>
       </c>
@@ -6961,7 +6969,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>33</v>
       </c>
@@ -6969,7 +6977,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>34</v>
       </c>
@@ -6977,7 +6985,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="110" t="s">
         <v>36</v>
       </c>
@@ -6988,7 +6996,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>37</v>
       </c>
@@ -6996,13 +7004,13 @@
         <v>513</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>45</v>
       </c>
@@ -7010,7 +7018,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>46</v>
       </c>
@@ -7021,20 +7029,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B81" s="32"/>
       <c r="C81"/>
     </row>
-    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>26</v>
       </c>
@@ -7043,7 +7051,7 @@
       </c>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -7052,7 +7060,7 @@
       </c>
       <c r="C83" s="24"/>
     </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>28</v>
       </c>
@@ -7063,14 +7071,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="32"/>
       <c r="C85"/>
     </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>30</v>
       </c>
@@ -7079,7 +7087,7 @@
       </c>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>31</v>
       </c>
@@ -7088,7 +7096,7 @@
       </c>
       <c r="C87"/>
     </row>
-    <row r="88" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>32</v>
       </c>
@@ -7099,7 +7107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>33</v>
       </c>
@@ -7108,7 +7116,7 @@
       </c>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>34</v>
       </c>
@@ -7117,14 +7125,14 @@
       </c>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B91" s="32"/>
       <c r="C91"/>
     </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>30</v>
       </c>
@@ -7133,7 +7141,7 @@
       </c>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>31</v>
       </c>
@@ -7142,7 +7150,7 @@
       </c>
       <c r="C93"/>
     </row>
-    <row r="94" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>32</v>
       </c>
@@ -7153,7 +7161,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>33</v>
       </c>
@@ -7162,7 +7170,7 @@
       </c>
       <c r="C95"/>
     </row>
-    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>34</v>
       </c>
@@ -7171,7 +7179,7 @@
       </c>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="42" t="s">
         <v>36</v>
       </c>
@@ -7180,7 +7188,7 @@
       </c>
       <c r="C97"/>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>37</v>
       </c>
@@ -7189,13 +7197,13 @@
       </c>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>55</v>
       </c>
@@ -7206,13 +7214,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>26</v>
       </c>
@@ -7220,7 +7228,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>27</v>
       </c>
@@ -7228,7 +7236,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>28</v>
       </c>
@@ -7239,13 +7247,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B105" s="93"/>
     </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>30</v>
       </c>
@@ -7253,7 +7261,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>31</v>
       </c>
@@ -7261,7 +7269,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>32</v>
       </c>
@@ -7272,7 +7280,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>33</v>
       </c>
@@ -7280,7 +7288,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>34</v>
       </c>
@@ -7288,13 +7296,13 @@
         <v>527</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B111" s="93"/>
     </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>30</v>
       </c>
@@ -7302,7 +7310,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>31</v>
       </c>
@@ -7310,7 +7318,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>32</v>
       </c>
@@ -7321,7 +7329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>33</v>
       </c>
@@ -7329,7 +7337,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>34</v>
       </c>
@@ -7337,7 +7345,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="110" t="s">
         <v>36</v>
       </c>
@@ -7345,7 +7353,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>37</v>
       </c>
@@ -7353,13 +7361,13 @@
         <v>532</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>81</v>
       </c>
@@ -7370,13 +7378,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B121" s="9"/>
     </row>
-    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>26</v>
       </c>
@@ -7384,7 +7392,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>27</v>
       </c>
@@ -7392,7 +7400,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>28</v>
       </c>
@@ -7403,13 +7411,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>30</v>
       </c>
@@ -7417,7 +7425,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>31</v>
       </c>
@@ -7425,7 +7433,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>32</v>
       </c>
@@ -7436,7 +7444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>33</v>
       </c>
@@ -7444,7 +7452,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>34</v>
       </c>
@@ -7452,13 +7460,13 @@
         <v>538</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B131" s="9"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>30</v>
       </c>
@@ -7466,7 +7474,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>31</v>
       </c>
@@ -7474,7 +7482,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>32</v>
       </c>
@@ -7485,7 +7493,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>33</v>
       </c>
@@ -7493,7 +7501,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>34</v>
       </c>
@@ -7501,7 +7509,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="49" t="s">
         <v>36</v>
       </c>
@@ -7512,7 +7520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>37</v>
       </c>
@@ -7520,13 +7528,13 @@
         <v>543</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B139" s="9"/>
     </row>
-    <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>8</v>
       </c>
@@ -7537,13 +7545,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B141" s="9"/>
     </row>
-    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>26</v>
       </c>
@@ -7551,7 +7559,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>27</v>
       </c>
@@ -7559,7 +7567,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>28</v>
       </c>
@@ -7570,13 +7578,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B145" s="9"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>30</v>
       </c>
@@ -7584,7 +7592,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>31</v>
       </c>
@@ -7592,7 +7600,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>32</v>
       </c>
@@ -7603,7 +7611,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -7611,7 +7619,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>34</v>
       </c>
@@ -7619,13 +7627,13 @@
         <v>549</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B151" s="9"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
         <v>30</v>
       </c>
@@ -7633,7 +7641,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
         <v>31</v>
       </c>
@@ -7641,7 +7649,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>32</v>
       </c>
@@ -7652,7 +7660,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -7660,7 +7668,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="14" t="s">
         <v>34</v>
       </c>
@@ -7668,7 +7676,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="110" t="s">
         <v>36</v>
       </c>
@@ -7679,7 +7687,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>37</v>
       </c>
@@ -7687,13 +7695,13 @@
         <v>554</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B159" s="9"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>86</v>
       </c>
@@ -7711,19 +7719,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C39C8C-5358-413A-9B76-713DBA4BBA32}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="104.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="104.109375" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="118" t="s">
         <v>265</v>
       </c>
@@ -7734,20 +7742,20 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
         <v>129</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>138</v>
       </c>
@@ -7756,7 +7764,7 @@
       </c>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>215</v>
       </c>
@@ -7764,7 +7772,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>108</v>
       </c>
@@ -7778,14 +7786,14 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -7794,7 +7802,7 @@
       </c>
       <c r="C8" s="78"/>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -7803,7 +7811,7 @@
       </c>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
@@ -7814,14 +7822,14 @@
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -7830,7 +7838,7 @@
       </c>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -7839,7 +7847,7 @@
       </c>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -7850,7 +7858,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -7859,7 +7867,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -7868,14 +7876,14 @@
       </c>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="52" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -7884,7 +7892,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -7893,7 +7901,7 @@
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
@@ -7904,7 +7912,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
@@ -7913,7 +7921,7 @@
       </c>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
@@ -7922,7 +7930,7 @@
       </c>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:4" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="44.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>36</v>
       </c>
@@ -7934,7 +7942,7 @@
       </c>
       <c r="D23" s="80"/>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -7943,20 +7951,20 @@
       </c>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="52" t="s">
         <v>142</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="s">
         <v>110</v>
       </c>
       <c r="B26" s="65"/>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>111</v>
       </c>
@@ -7965,7 +7973,7 @@
       </c>
       <c r="C27" s="25"/>
     </row>
-    <row r="28" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>112</v>
       </c>
@@ -7979,7 +7987,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>113</v>
       </c>
@@ -7990,17 +7998,17 @@
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="55"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="52" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="54"/>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
@@ -8008,7 +8016,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>27</v>
       </c>
@@ -8016,7 +8024,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
@@ -8024,14 +8032,14 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>30</v>
       </c>
@@ -8040,7 +8048,7 @@
       </c>
       <c r="C36" s="17"/>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>31</v>
       </c>
@@ -8049,7 +8057,7 @@
       </c>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>32</v>
       </c>
@@ -8060,7 +8068,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>33</v>
       </c>
@@ -8069,7 +8077,7 @@
       </c>
       <c r="C39" s="17"/>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>34</v>
       </c>
@@ -8078,14 +8086,14 @@
       </c>
       <c r="C40" s="17"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="52" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="54"/>
       <c r="C41" s="17"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
@@ -8094,7 +8102,7 @@
       </c>
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>31</v>
       </c>
@@ -8103,7 +8111,7 @@
       </c>
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>32</v>
       </c>
@@ -8114,7 +8122,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>33</v>
       </c>
@@ -8123,7 +8131,7 @@
       </c>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>34</v>
       </c>
@@ -8132,7 +8140,7 @@
       </c>
       <c r="C46" s="17"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>36</v>
       </c>
@@ -8142,7 +8150,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="80"/>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>37</v>
       </c>
@@ -8151,14 +8159,14 @@
       </c>
       <c r="C48" s="17"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="52" t="s">
         <v>143</v>
       </c>
       <c r="B49" s="54"/>
       <c r="C49" s="17"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="64" t="s">
         <v>114</v>
       </c>
@@ -8166,7 +8174,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>115</v>
       </c>
@@ -8174,7 +8182,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>112</v>
       </c>
@@ -8188,7 +8196,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>113</v>
       </c>
@@ -8199,17 +8207,17 @@
         <v>608</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="55"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="52" t="s">
         <v>130</v>
       </c>
       <c r="B55" s="54"/>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -8217,7 +8225,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>27</v>
       </c>
@@ -8225,7 +8233,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>28</v>
       </c>
@@ -8233,14 +8241,14 @@
         <v>572</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="54"/>
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>30</v>
       </c>
@@ -8249,7 +8257,7 @@
       </c>
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>31</v>
       </c>
@@ -8258,7 +8266,7 @@
       </c>
       <c r="C61" s="17"/>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>32</v>
       </c>
@@ -8269,7 +8277,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>33</v>
       </c>
@@ -8278,7 +8286,7 @@
       </c>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="88" t="s">
         <v>34</v>
       </c>
@@ -8287,14 +8295,14 @@
       </c>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="52" t="s">
         <v>35</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>30</v>
       </c>
@@ -8303,7 +8311,7 @@
       </c>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>31</v>
       </c>
@@ -8312,7 +8320,7 @@
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>32</v>
       </c>
@@ -8323,7 +8331,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>33</v>
       </c>
@@ -8332,7 +8340,7 @@
       </c>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>34</v>
       </c>
@@ -8341,7 +8349,7 @@
       </c>
       <c r="C70" s="17"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
         <v>36</v>
       </c>
@@ -8351,7 +8359,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="80"/>
     </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>37</v>
       </c>
@@ -8360,14 +8368,14 @@
       </c>
       <c r="C72" s="17"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="52" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="54"/>
       <c r="C73" s="17"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="64" t="s">
         <v>116</v>
       </c>
@@ -8375,7 +8383,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>117</v>
       </c>
@@ -8383,7 +8391,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>118</v>
       </c>
@@ -8397,13 +8405,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="52" t="s">
         <v>220</v>
       </c>
       <c r="B77" s="68"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="64" t="s">
         <v>119</v>
       </c>
@@ -8411,7 +8419,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>120</v>
       </c>
@@ -8419,7 +8427,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>118</v>
       </c>
@@ -8433,17 +8441,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="55"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="52" t="s">
         <v>145</v>
       </c>
       <c r="B82" s="68"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="64" t="s">
         <v>121</v>
       </c>
@@ -8451,7 +8459,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>122</v>
       </c>
@@ -8459,7 +8467,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>118</v>
       </c>
@@ -8467,11 +8475,11 @@
         <v>582</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
       <c r="B86" s="55"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="52" t="s">
         <v>123</v>
       </c>
@@ -8479,7 +8487,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>124</v>
       </c>
@@ -8487,17 +8495,17 @@
         <v>583</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="55"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="52" t="s">
         <v>131</v>
       </c>
       <c r="B90" s="54"/>
     </row>
-    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>26</v>
       </c>
@@ -8505,7 +8513,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>27</v>
       </c>
@@ -8513,7 +8521,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -8521,14 +8529,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B94" s="54"/>
       <c r="C94" s="17"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>30</v>
       </c>
@@ -8537,7 +8545,7 @@
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>31</v>
       </c>
@@ -8546,7 +8554,7 @@
       </c>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>32</v>
       </c>
@@ -8557,7 +8565,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>33</v>
       </c>
@@ -8566,7 +8574,7 @@
       </c>
       <c r="C98" s="17"/>
     </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>34</v>
       </c>
@@ -8575,14 +8583,14 @@
       </c>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="52" t="s">
         <v>35</v>
       </c>
       <c r="B100" s="54"/>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>30</v>
       </c>
@@ -8591,7 +8599,7 @@
       </c>
       <c r="C101" s="17"/>
     </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>31</v>
       </c>
@@ -8600,7 +8608,7 @@
       </c>
       <c r="C102" s="17"/>
     </row>
-    <row r="103" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>32</v>
       </c>
@@ -8611,7 +8619,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>33</v>
       </c>
@@ -8620,7 +8628,7 @@
       </c>
       <c r="C104" s="17"/>
     </row>
-    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>34</v>
       </c>
@@ -8629,7 +8637,7 @@
       </c>
       <c r="C105" s="17"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="28" t="s">
         <v>36</v>
       </c>
@@ -8638,7 +8646,7 @@
       </c>
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="90" t="s">
         <v>37</v>
       </c>
@@ -8647,7 +8655,7 @@
       </c>
       <c r="C107" s="17"/>
     </row>
-    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="52" t="s">
         <v>125</v>
       </c>
@@ -8655,7 +8663,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>126</v>
       </c>
@@ -8663,75 +8671,75 @@
         <v>590</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="55"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
     </row>
@@ -8749,17 +8757,17 @@
       <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="82.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="82.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="8" max="8" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
+    <col min="8" max="8" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16382" ht="63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16382" ht="63" x14ac:dyDescent="0.35">
       <c r="A1" s="118" t="s">
         <v>265</v>
       </c>
@@ -45613,26 +45621,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="57"/>
     </row>
-    <row r="3" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="57"/>
     </row>
-    <row r="4" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="63"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:16382" ht="210" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16382" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>134</v>
       </c>
@@ -45643,7 +45651,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="6" spans="1:16382" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16382" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>46</v>
       </c>
@@ -45654,18 +45662,18 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="55"/>
     </row>
-    <row r="8" spans="1:16382" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16382" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="119" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="60"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:16382" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16382" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -45674,7 +45682,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -45683,7 +45691,7 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:16382" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16382" ht="50.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -45694,14 +45702,14 @@
         <v>597</v>
       </c>
     </row>
-    <row r="12" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -45710,7 +45718,7 @@
       </c>
       <c r="C13" s="47"/>
     </row>
-    <row r="14" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -45719,7 +45727,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:16382" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16382" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>32</v>
       </c>
@@ -45730,7 +45738,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -45739,7 +45747,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>34</v>
       </c>
@@ -45748,14 +45756,14 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="48"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>30</v>
       </c>
@@ -45764,7 +45772,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>31</v>
       </c>
@@ -45772,7 +45780,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -45783,7 +45791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
@@ -45791,7 +45799,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>34</v>
       </c>
@@ -45799,7 +45807,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -45807,10 +45815,10 @@
         <v>661</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="33"/>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="83" t="s">
         <v>135</v>
       </c>
@@ -45819,7 +45827,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>134</v>
       </c>
@@ -45831,7 +45839,7 @@
       </c>
       <c r="G27" s="38"/>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
@@ -45842,14 +45850,14 @@
         <v>647</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="83" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="85"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
@@ -45858,7 +45866,7 @@
       </c>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>27</v>
       </c>
@@ -45867,7 +45875,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -45878,14 +45886,14 @@
         <v>597</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="83" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="86"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
@@ -45894,7 +45902,7 @@
       </c>
       <c r="C34" s="47"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>31</v>
       </c>
@@ -45903,7 +45911,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>32</v>
       </c>
@@ -45914,7 +45922,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>33</v>
       </c>
@@ -45923,7 +45931,7 @@
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
@@ -45932,14 +45940,14 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="83" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="86"/>
       <c r="C39" s="48"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>30</v>
       </c>
@@ -45948,7 +45956,7 @@
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>31</v>
       </c>
@@ -45956,7 +45964,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>32</v>
       </c>
@@ -45967,7 +45975,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>33</v>
       </c>
@@ -45975,7 +45983,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>34</v>
       </c>
@@ -45983,7 +45991,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
@@ -45991,13 +45999,13 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
         <v>136</v>
       </c>
       <c r="B46" s="95"/>
     </row>
-    <row r="47" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>141</v>
       </c>
@@ -46008,17 +46016,17 @@
         <v>666</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="58" t="s">
         <v>140</v>
       </c>
       <c r="B49" s="60"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -46027,7 +46035,7 @@
       </c>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>27</v>
       </c>
@@ -46036,7 +46044,7 @@
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>28</v>
       </c>
@@ -46047,14 +46055,14 @@
         <v>597</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>30</v>
       </c>
@@ -46063,7 +46071,7 @@
       </c>
       <c r="C54" s="47"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>31</v>
       </c>
@@ -46072,7 +46080,7 @@
       </c>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>32</v>
       </c>
@@ -46083,7 +46091,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>33</v>
       </c>
@@ -46092,7 +46100,7 @@
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>34</v>
       </c>
@@ -46101,14 +46109,14 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="61"/>
       <c r="C59" s="48"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>30</v>
       </c>
@@ -46117,7 +46125,7 @@
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>31</v>
       </c>
@@ -46125,7 +46133,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>32</v>
       </c>
@@ -46136,7 +46144,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>33</v>
       </c>
@@ -46144,7 +46152,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>34</v>
       </c>
@@ -46152,7 +46160,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>37</v>
       </c>
@@ -46173,15 +46181,15 @@
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="85.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="118" t="s">
         <v>265</v>
       </c>
@@ -46192,19 +46200,19 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="70"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>147</v>
       </c>
       <c r="B3" s="72"/>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>148</v>
       </c>
@@ -46212,7 +46220,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>149</v>
       </c>
@@ -46223,7 +46231,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>150</v>
       </c>
@@ -46232,7 +46240,7 @@
       </c>
       <c r="C6" s="81"/>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -46243,7 +46251,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>151</v>
       </c>
@@ -46254,7 +46262,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>152</v>
       </c>
@@ -46265,7 +46273,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
         <v>226</v>
       </c>
@@ -46279,7 +46287,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>153</v>
       </c>
@@ -46290,7 +46298,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>154</v>
       </c>
@@ -46299,13 +46307,13 @@
       </c>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>155</v>
       </c>
       <c r="B13" s="59"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>156</v>
       </c>
@@ -46316,7 +46324,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>157</v>
       </c>
@@ -46328,7 +46336,7 @@
       </c>
       <c r="D15" s="125"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>158</v>
       </c>
@@ -46338,7 +46346,7 @@
       <c r="C16" s="24"/>
       <c r="D16" s="125"/>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>159</v>
       </c>
@@ -46347,7 +46355,7 @@
       </c>
       <c r="D17" s="125"/>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>160</v>
       </c>
@@ -46356,13 +46364,13 @@
       </c>
       <c r="D18" s="125"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="59"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -46370,7 +46378,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -46381,7 +46389,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>159</v>
       </c>
@@ -46392,7 +46400,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>160</v>
       </c>
@@ -46400,7 +46408,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>156</v>
       </c>
@@ -46408,7 +46416,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>162</v>
       </c>
@@ -46417,7 +46425,7 @@
       </c>
       <c r="C25" s="44"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>163</v>
       </c>
@@ -46425,7 +46433,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>164</v>
       </c>
@@ -46433,7 +46441,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>165</v>
       </c>
@@ -46441,7 +46449,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>166</v>
       </c>
@@ -46449,7 +46457,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>167</v>
       </c>
@@ -46457,7 +46465,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>168</v>
       </c>
@@ -46465,7 +46473,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>169</v>
       </c>
@@ -46476,7 +46484,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>171</v>
       </c>
@@ -46484,7 +46492,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>172</v>
       </c>
@@ -46492,7 +46500,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>173</v>
       </c>
@@ -46500,7 +46508,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>174</v>
       </c>
@@ -46508,7 +46516,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>175</v>
       </c>
@@ -46516,7 +46524,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>176</v>
       </c>
@@ -46527,7 +46535,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>177</v>
       </c>
@@ -46535,7 +46543,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>178</v>
       </c>
@@ -46544,7 +46552,7 @@
       </c>
       <c r="C40" s="78"/>
     </row>
-    <row r="41" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>179</v>
       </c>
@@ -46555,7 +46563,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>180</v>
       </c>
@@ -46563,7 +46571,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>154</v>
       </c>
@@ -46571,13 +46579,13 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="s">
         <v>181</v>
       </c>
       <c r="B44" s="59"/>
     </row>
-    <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>182</v>
       </c>
@@ -46588,13 +46596,13 @@
         <v>711</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="58" t="s">
         <v>183</v>
       </c>
       <c r="B46" s="59"/>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>40</v>
       </c>
@@ -46603,7 +46611,7 @@
       </c>
       <c r="C47" s="79"/>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>184</v>
       </c>
@@ -46612,13 +46620,13 @@
       </c>
       <c r="C48" s="79"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="58" t="s">
         <v>185</v>
       </c>
       <c r="B49" s="59"/>
     </row>
-    <row r="50" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>186</v>
       </c>
@@ -46629,13 +46637,13 @@
         <v>717</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
         <v>191</v>
       </c>
       <c r="B51" s="63"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="58" t="s">
         <v>187</v>
       </c>
@@ -46644,7 +46652,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>188</v>
       </c>
@@ -46655,7 +46663,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
@@ -46666,14 +46674,14 @@
         <v>721</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="58" t="s">
         <v>190</v>
       </c>
       <c r="B55" s="60"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -46682,7 +46690,7 @@
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>27</v>
       </c>
@@ -46691,7 +46699,7 @@
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>28</v>
       </c>
@@ -46702,14 +46710,14 @@
         <v>597</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="61"/>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>30</v>
       </c>
@@ -46718,7 +46726,7 @@
       </c>
       <c r="C60" s="47"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>31</v>
       </c>
@@ -46727,7 +46735,7 @@
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>32</v>
       </c>
@@ -46738,7 +46746,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>33</v>
       </c>
@@ -46747,7 +46755,7 @@
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>34</v>
       </c>
@@ -46756,14 +46764,14 @@
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B65" s="61"/>
       <c r="C65" s="48"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>30</v>
       </c>
@@ -46772,7 +46780,7 @@
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>31</v>
       </c>
@@ -46781,7 +46789,7 @@
       </c>
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>32</v>
       </c>
@@ -46792,7 +46800,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>33</v>
       </c>
@@ -46801,7 +46809,7 @@
       </c>
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>34</v>
       </c>
@@ -46810,7 +46818,7 @@
       </c>
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="49" t="s">
         <v>36</v>
       </c>
@@ -46819,7 +46827,7 @@
       </c>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>37</v>
       </c>
@@ -46828,7 +46836,7 @@
       </c>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="62" t="s">
         <v>191</v>
       </c>
@@ -46837,13 +46845,13 @@
         <v>663</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="58" t="s">
         <v>189</v>
       </c>
       <c r="B74" s="59"/>
     </row>
-    <row r="75" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>188</v>
       </c>
@@ -46854,7 +46862,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>46</v>
       </c>
@@ -46865,14 +46873,14 @@
         <v>721</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="58" t="s">
         <v>190</v>
       </c>
       <c r="B77" s="60"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>26</v>
       </c>
@@ -46881,7 +46889,7 @@
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -46890,7 +46898,7 @@
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>28</v>
       </c>
@@ -46901,14 +46909,14 @@
         <v>597</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B81" s="61"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>30</v>
       </c>
@@ -46917,7 +46925,7 @@
       </c>
       <c r="C82" s="47"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>31</v>
       </c>
@@ -46926,7 +46934,7 @@
       </c>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>32</v>
       </c>
@@ -46937,7 +46945,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>33</v>
       </c>
@@ -46946,7 +46954,7 @@
       </c>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>34</v>
       </c>
@@ -46955,14 +46963,14 @@
       </c>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B87" s="61"/>
       <c r="C87" s="48"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>30</v>
       </c>
@@ -46971,7 +46979,7 @@
       </c>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>31</v>
       </c>
@@ -46980,7 +46988,7 @@
       </c>
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>32</v>
       </c>
@@ -46991,7 +46999,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>33</v>
       </c>
@@ -47000,7 +47008,7 @@
       </c>
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>34</v>
       </c>
@@ -47009,7 +47017,7 @@
       </c>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="49" t="s">
         <v>36</v>
       </c>
@@ -47018,7 +47026,7 @@
       </c>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>37</v>
       </c>
@@ -47043,14 +47051,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="118" t="s">
         <v>265</v>
       </c>
@@ -47061,13 +47069,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="76"/>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>193</v>
       </c>
@@ -47078,7 +47086,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>194</v>
       </c>
@@ -47098,18 +47106,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D805F2B-F689-44FE-B6F3-2887D178BC69}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" style="100" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" style="100" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="118" t="s">
         <v>265</v>
       </c>
@@ -47120,13 +47128,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>195</v>
       </c>
       <c r="B2" s="99"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>196</v>
       </c>
@@ -47134,7 +47142,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>197</v>
       </c>
@@ -47145,13 +47153,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>198</v>
       </c>
       <c r="B6" s="99"/>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>199</v>
       </c>
@@ -47159,13 +47167,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
         <v>202</v>
       </c>
       <c r="B9" s="99"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>200</v>
       </c>
@@ -47173,17 +47181,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="55"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="99"/>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>201</v>
       </c>
@@ -47191,7 +47199,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="55"/>
     </row>
